--- a/SubPublicquess.xlsx
+++ b/SubPublicquess.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaos/Library/Mobile Documents/com~apple~CloudDocs/node_project/qc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE551A45-F2EF-934D-8D76-0ABB053C5658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD496018-F317-C448-9A56-0FDC3692DC18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2200" windowWidth="34320" windowHeight="17440" xr2:uid="{9CBFF4BC-2EAE-0242-A983-C8531F11B9FA}"/>
+    <workbookView xWindow="3340" yWindow="8120" windowWidth="34320" windowHeight="17440" xr2:uid="{9CBFF4BC-2EAE-0242-A983-C8531F11B9FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,14 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好的没问题$随随便便$中国万岁$人类和平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随随便便$中国万岁$人类和平$祖国万岁$陕西师范大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正确$错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,95 +71,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划计划回家回家回家回家后两节课回来看见</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他天天怨天尤人突然突然突然投入与他人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>又吐又吐又吐又题 u 液体 u 液体液体 u 液体 u 题 u</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8款坎坎坷坷坎坎坷坷坎坎坷坷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9哥哥哥哥哥哥哥哥哥哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0乒乒乓乓乒乒乓乓乒乒乓乓品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wiki.wannax.cn/stastic/000000.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wiki.wannax.cn/stastic/1111.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wiki.wannax.cn/stastic/2222.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wiki.wannax.cn/weixin/music/liang.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wiki.wannax.cn/weixin/music/liang.mp4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>knowlege</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后勤服务系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采煤系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二道：采煤系统公共题，题第二道题第二道题第二道题第二道题第二道题第二道题第二道题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掘进系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三道：后勤服务系统公共题，第三道题第三道题第三道题第三道题第三道题第三道题第三道题第三道题第三道题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一道：掘进系统公共题，第一道题第一道题第一道题第一道题第一道题第一道题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>depart_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采煤工作面必须保持至少2个畅通的安全出口，一个通到回风巷道，一个通到进风巷道。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +110,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,11 +144,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,13 +472,13 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
     <col min="4" max="4" width="52.1640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="31.83203125" customWidth="1"/>
@@ -563,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -578,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -597,120 +526,37 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{36FAB5E1-F331-804B-B65F-3E6EA32AE1A3}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{C0A4B3AD-57C0-5042-B6EE-C4C8DB09315A}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{6C61E924-518C-924C-B9D7-6076656B1AC4}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{94A3AED6-145C-A04C-83A6-CFD0FA36D151}"/>
-    <hyperlink ref="J3" r:id="rId5" xr:uid="{A3B02A3D-93EC-B944-B1BE-28A1697BEBD3}"/>
-    <hyperlink ref="J4" r:id="rId6" xr:uid="{3518FA34-7169-0A4B-9C61-6A3342967D69}"/>
-    <hyperlink ref="K2" r:id="rId7" xr:uid="{CFB5F630-632D-D74D-9107-5F3A35E5C2FF}"/>
-    <hyperlink ref="K4" r:id="rId8" xr:uid="{DE9B589F-F1F9-AB43-BD9A-7B00171CB932}"/>
-    <hyperlink ref="K3" r:id="rId9" xr:uid="{37053C1B-BD3F-DC49-88F3-B1FF99380561}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>